--- a/public/data/profit/profit_table_mozambique.xlsx
+++ b/public/data/profit/profit_table_mozambique.xlsx
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.14</v>
+        <v>-12.41</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-48.06</v>
+        <v>-20.69</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-30.24</v>
+        <v>-19.83</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-31.69</v>
+        <v>-28.21</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-56.5</v>
+        <v>-18.75</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-60.08</v>
+        <v>-33.95</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.58</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-50.55</v>
+        <v>-33.06</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.33</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1800,25 +1800,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-11.43</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-23.5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-51.45</v>
+        <v>-34.89</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-22.89</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-23.44</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-23.49</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.76</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.36</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-32.85</v>
+        <v>-31.14</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-33.71</v>
+        <v>-34.68</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-52.51</v>
+        <v>-30.47</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-18.03</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-56.41</v>
+        <v>-37.56</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-17.79</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-18.02</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-17.97</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-10.85</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-33.14</v>
+        <v>-18.38</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2123,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-7.28</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-33.91</v>
+        <v>-25.21</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.25</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.28</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-7.27</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-6.24</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-72.39</v>
+        <v>-48.55</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2203,22 +2203,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-21.02</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-76.61</v>
+        <v>-55.18</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-21.13</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-21.19</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-21.18</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-19.1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-69.49</v>
+        <v>-49.63</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-29.97</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-70.25</v>
+        <v>-51.14</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-29.94</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-29.97</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-29.97</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-29.09</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-31.25</v>
+        <v>-23.45</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-31.33</v>
+        <v>-22.05</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-64.96</v>
+        <v>-30.26</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2443,22 +2443,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-18.8</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-69.55</v>
+        <v>-39.04</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-18.82</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-7.08</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-18.96</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -2470,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-18.91</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-2.94</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-14.25</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>95</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-85.14</v>
+        <v>-53.46</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.16</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-44.42</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-84.95</v>
+        <v>-55.53</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-43.8</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-44.35</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-44.43</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-22.72</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.02</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-26.63</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-26.95</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-43.84</v>
+        <v>-37.61</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2683,22 +2683,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-29.73</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-45.03</v>
+        <v>-40.95</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-28.96</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-29.58</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-29.58</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-5.4</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2742,16 +2742,16 @@
         <v>99</v>
       </c>
       <c r="D17" t="n">
-        <v>-115.72</v>
+        <v>-133.97</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-143.99</v>
+        <v>-143.54</v>
       </c>
       <c r="G17" t="n">
-        <v>-59.47</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-142.63</v>
+        <v>-197.89</v>
       </c>
       <c r="K17" t="n">
-        <v>-150.38</v>
+        <v>-224.66</v>
       </c>
       <c r="L17" t="n">
-        <v>-140.13</v>
+        <v>-136.95</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-129.38</v>
+        <v>-182.45</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-149.19</v>
+        <v>-235.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>771.2</v>
+        <v>2194.14</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2790,22 +2790,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-145.41</v>
+        <v>-224.08</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-42.14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>425.23</v>
+        <v>1237.75</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-111.36</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2822,16 +2822,16 @@
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>-54.83</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-48.79</v>
+        <v>-131.15</v>
       </c>
       <c r="G18" t="n">
-        <v>-24.64</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2840,28 +2840,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-57.77</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-68.49</v>
+        <v>-87.15</v>
       </c>
       <c r="L18" t="n">
-        <v>-47.87</v>
+        <v>-125.46</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-63.48</v>
+        <v>-67.78</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-68.8</v>
+        <v>-92.23</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.32</v>
+        <v>1057.78</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-67.58</v>
+        <v>-86.07</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-19.36</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>68.41</v>
+        <v>470.56</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-12.07</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -3083,25 +3083,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-5.71</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-12.56</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-5.54</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-5.81</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.85</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-5.77</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3302,16 +3302,16 @@
         <v>106</v>
       </c>
       <c r="D24" t="n">
-        <v>-142.33</v>
+        <v>-165.01</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-197.92</v>
+        <v>-183.85</v>
       </c>
       <c r="G24" t="n">
-        <v>-81.78</v>
+        <v>-26.28</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3320,28 +3320,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-163.69</v>
+        <v>-221.35</v>
       </c>
       <c r="K24" t="n">
-        <v>-208.47</v>
+        <v>-231.24</v>
       </c>
       <c r="L24" t="n">
-        <v>-201.93</v>
+        <v>-186.1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-166.58</v>
+        <v>-172.25</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-200.28</v>
+        <v>-240.13</v>
       </c>
       <c r="Q24" t="n">
-        <v>1481.13</v>
+        <v>3120.03</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-191.26</v>
+        <v>-221.52</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>129.03</v>
+        <v>630.5</v>
       </c>
       <c r="W24" t="n">
-        <v>649.52</v>
+        <v>1490.83</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>489.11</v>
+        <v>1444.04</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -3542,16 +3542,16 @@
         <v>109</v>
       </c>
       <c r="D27" t="n">
-        <v>-137.58</v>
+        <v>-185.33</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-266.04</v>
+        <v>-191.35</v>
       </c>
       <c r="G27" t="n">
-        <v>-85.36</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3560,28 +3560,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-150.81</v>
+        <v>-256.2</v>
       </c>
       <c r="K27" t="n">
-        <v>-226.32</v>
+        <v>-268.48</v>
       </c>
       <c r="L27" t="n">
-        <v>-260.48</v>
+        <v>-180.22</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-205.18</v>
+        <v>-210.86</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-223.88</v>
+        <v>-273.93</v>
       </c>
       <c r="Q27" t="n">
-        <v>529.41</v>
+        <v>2292.51</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-219.05</v>
+        <v>-256.76</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>-29.52</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>246.98</v>
+        <v>1314.1</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>-75.17</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>111</v>
       </c>
       <c r="D28" t="n">
-        <v>-94.01</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-85.97</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3640,28 +3640,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-97.39</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-119.87</v>
+        <v>-192.15</v>
       </c>
       <c r="L28" t="n">
-        <v>-96.23</v>
+        <v>-178.78</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-113.86</v>
+        <v>-174.47</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-122.66</v>
+        <v>-202.39</v>
       </c>
       <c r="Q28" t="n">
-        <v>289.07</v>
+        <v>1273.5</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-120.24</v>
+        <v>-194.05</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3679,13 +3679,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>96.91</v>
+        <v>460.56</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.04</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-31.29</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3723,25 +3723,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-76.72</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-44.5</v>
+        <v>-84.07</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-76.46</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-76.84</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.16</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-77.45</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-51.02</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>113</v>
       </c>
       <c r="D30" t="n">
-        <v>-67.41</v>
+        <v>-83.4</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-61.28</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3800,28 +3800,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-74.23</v>
+        <v>-113.47</v>
       </c>
       <c r="K30" t="n">
-        <v>-100.21</v>
+        <v>-136.56</v>
       </c>
       <c r="L30" t="n">
-        <v>-75.91</v>
+        <v>-100.54</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-89.33</v>
+        <v>-102.5</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-100.57</v>
+        <v>-146.23</v>
       </c>
       <c r="Q30" t="n">
-        <v>498.75</v>
+        <v>1854.77</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-98.39</v>
+        <v>-137.47</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3839,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>195.07</v>
+        <v>973.98</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>114.83</v>
+        <v>741.03</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3862,16 +3862,16 @@
         <v>114</v>
       </c>
       <c r="D31" t="n">
-        <v>-162.84</v>
+        <v>-172.54</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-173.8</v>
+        <v>-145.41</v>
       </c>
       <c r="G31" t="n">
-        <v>-74.13</v>
+        <v>20.18</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3880,28 +3880,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-197.14</v>
+        <v>-243.29</v>
       </c>
       <c r="K31" t="n">
-        <v>-274.14</v>
+        <v>-273.49</v>
       </c>
       <c r="L31" t="n">
-        <v>-282.37</v>
+        <v>-211.36</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-181.71</v>
+        <v>-177.27</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-238.09</v>
+        <v>-262.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2886.11</v>
+        <v>4488.13</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-226.41</v>
+        <v>-244.72</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3919,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1386.91</v>
+        <v>2135.2</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>899.97</v>
+        <v>2014.6</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>115</v>
       </c>
       <c r="D32" t="n">
-        <v>-52.14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-23.55</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3960,28 +3960,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-58.7</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-62.76</v>
+        <v>-119.15</v>
       </c>
       <c r="L32" t="n">
-        <v>-52.29</v>
+        <v>-120.05</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-57.56</v>
+        <v>-98.27</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-60.74</v>
+        <v>-114.37</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.82</v>
+        <v>1117.47</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-60.29</v>
+        <v>-110.32</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3999,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>100.01</v>
+        <v>581.28</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>121.74</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>116</v>
       </c>
       <c r="D33" t="n">
-        <v>-46.91</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-21.68</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -4040,28 +4040,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-49.32</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-75.37</v>
+        <v>-106.53</v>
       </c>
       <c r="L33" t="n">
-        <v>-107.72</v>
+        <v>-74.84</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-69.93</v>
+        <v>-84.04</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-75.99</v>
+        <v>-116</v>
       </c>
       <c r="Q33" t="n">
-        <v>280.27</v>
+        <v>1369.31</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-74.14</v>
+        <v>-105.4</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4079,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>81.49</v>
+        <v>723.73</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.36</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -4102,16 +4102,16 @@
         <v>117</v>
       </c>
       <c r="D34" t="n">
-        <v>-24.45</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-21.6</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-14.63</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4120,28 +4120,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-29.25</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-42.05</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-33.64</v>
+        <v>-78.55</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-40.13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-42.93</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>180.12</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-42.11</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>31.59</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-17.1</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>118</v>
       </c>
       <c r="D35" t="n">
-        <v>-208.22</v>
+        <v>-224.84</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-116.29</v>
+        <v>-9.65</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -4200,28 +4200,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-248.6</v>
+        <v>-308.8</v>
       </c>
       <c r="K35" t="n">
-        <v>-281.24</v>
+        <v>-293.21</v>
       </c>
       <c r="L35" t="n">
-        <v>-200.14</v>
+        <v>-185.22</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-222.51</v>
+        <v>-227.59</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-276.42</v>
+        <v>-305.13</v>
       </c>
       <c r="Q35" t="n">
-        <v>3358.69</v>
+        <v>4707.2</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-270.57</v>
+        <v>-297.48</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -4239,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1271.77</v>
+        <v>2054.84</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.39</v>
+        <v>1685.43</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>119</v>
       </c>
       <c r="D36" t="n">
-        <v>-146.7</v>
+        <v>-142.87</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-77.82</v>
+        <v>30.32</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -4280,28 +4280,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-169.91</v>
+        <v>-202.91</v>
       </c>
       <c r="K36" t="n">
-        <v>-228.35</v>
+        <v>-204.05</v>
       </c>
       <c r="L36" t="n">
-        <v>-226.1</v>
+        <v>-169.54</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-179.41</v>
+        <v>-151.31</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-221.59</v>
+        <v>-217.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>1979.47</v>
+        <v>3078.06</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-210.67</v>
+        <v>-200.71</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4319,13 +4319,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>843.91</v>
+        <v>1481.94</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>586.12</v>
+        <v>1570.81</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -4342,16 +4342,16 @@
         <v>120</v>
       </c>
       <c r="D37" t="n">
-        <v>-85</v>
+        <v>-84.01</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-60.8</v>
+        <v>-95.17</v>
       </c>
       <c r="G37" t="n">
-        <v>-55.67</v>
+        <v>32.83</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4360,28 +4360,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-105.4</v>
+        <v>-146.21</v>
       </c>
       <c r="K37" t="n">
-        <v>-121.85</v>
+        <v>-200.24</v>
       </c>
       <c r="L37" t="n">
-        <v>-107.99</v>
+        <v>-134.32</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-83.98</v>
+        <v>-119.37</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-107.79</v>
+        <v>-190.89</v>
       </c>
       <c r="Q37" t="n">
-        <v>1460.67</v>
+        <v>4509.27</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-105.34</v>
+        <v>-183.16</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4399,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>609.33</v>
+        <v>1962.68</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>410.15</v>
+        <v>1478.86</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>121</v>
       </c>
       <c r="D38" t="n">
-        <v>-155.2</v>
+        <v>-237.95</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-105.83</v>
+        <v>-73.47</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -4440,28 +4440,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-170.25</v>
+        <v>-304.07</v>
       </c>
       <c r="K38" t="n">
-        <v>-172.1</v>
+        <v>-286.4</v>
       </c>
       <c r="L38" t="n">
-        <v>-181.26</v>
+        <v>-173.35</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-151.92</v>
+        <v>-243.05</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-164.42</v>
+        <v>-281.18</v>
       </c>
       <c r="Q38" t="n">
-        <v>772.55</v>
+        <v>2559.19</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-163.93</v>
+        <v>-279.45</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4479,13 +4479,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>270.16</v>
+        <v>1077.63</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.88</v>
+        <v>1193.09</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -4502,16 +4502,16 @@
         <v>122</v>
       </c>
       <c r="D39" t="n">
-        <v>-219.52</v>
+        <v>-180.63</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-292.5</v>
+        <v>-189.17</v>
       </c>
       <c r="G39" t="n">
-        <v>-100.24</v>
+        <v>3.08</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4520,28 +4520,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-262.37</v>
+        <v>-257.98</v>
       </c>
       <c r="K39" t="n">
-        <v>-349.12</v>
+        <v>-252.76</v>
       </c>
       <c r="L39" t="n">
-        <v>-331.37</v>
+        <v>-206.96</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-253.86</v>
+        <v>-173.06</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-329.16</v>
+        <v>-262.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>3685.55</v>
+        <v>4561.73</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-309.56</v>
+        <v>-238.95</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1635.16</v>
+        <v>2059.51</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>972.55</v>
+        <v>1888.68</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -4582,73 +4582,73 @@
         <v>124</v>
       </c>
       <c r="D40" t="n">
-        <v>-41.67</v>
+        <v>-22.72</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.45</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-79.72</v>
+        <v>-61.21</v>
       </c>
       <c r="G40" t="n">
-        <v>-63.35</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-16.06</v>
+        <v>25.91</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-56.69</v>
+        <v>-68.03</v>
       </c>
       <c r="K40" t="n">
-        <v>-76.18</v>
+        <v>-82.13</v>
       </c>
       <c r="L40" t="n">
-        <v>-85.8</v>
+        <v>-68.83</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-74.12</v>
+        <v>-79.09</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-76.14</v>
+        <v>-91.72</v>
       </c>
       <c r="Q40" t="n">
-        <v>288.8</v>
+        <v>678.55</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-115.69</v>
+        <v>-141.47</v>
       </c>
       <c r="T40" t="n">
-        <v>-79.06</v>
+        <v>-88.68</v>
       </c>
       <c r="U40" t="n">
-        <v>-32.88</v>
+        <v>-19.6</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>130.16</v>
+        <v>335.98</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.57</v>
+        <v>124.87</v>
       </c>
       <c r="Z40" t="n">
-        <v>-52.82</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="41">
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-46.58</v>
+        <v>-42</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4683,25 +4683,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-29.7</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-44.8</v>
+        <v>-40.57</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-28.02</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-28.75</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-14.54</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-28.46</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-10.4</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>-27.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-20.24</v>
+        <v>-11.98</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-20.16</v>
+        <v>-11.54</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-36.16</v>
+        <v>-71.35</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4843,25 +4843,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-31.44</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-36.11</v>
+        <v>-71.44</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-31.27</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-31.56</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-23.64</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-31.45</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-24.45</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>-30.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4902,16 +4902,16 @@
         <v>128</v>
       </c>
       <c r="D44" t="n">
-        <v>-21.72</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-35.57</v>
+        <v>-36.54</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.39</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4920,28 +4920,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-33.86</v>
+        <v>-15.87</v>
       </c>
       <c r="K44" t="n">
-        <v>-48.98</v>
+        <v>-44.64</v>
       </c>
       <c r="L44" t="n">
-        <v>-35.82</v>
+        <v>-37.25</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-45.3</v>
+        <v>-30.82</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>-52.89</v>
+        <v>-62.12</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.36</v>
+        <v>635.89</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-50.42</v>
+        <v>-51.95</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4959,16 +4959,16 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>99.64</v>
+        <v>550</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.79</v>
+        <v>154.1</v>
       </c>
       <c r="Z44" t="n">
-        <v>-31.68</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="45">
@@ -4982,73 +4982,73 @@
         <v>123</v>
       </c>
       <c r="D45" t="n">
-        <v>-27.82</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>-68.53</v>
+        <v>-35.34</v>
       </c>
       <c r="F45" t="n">
-        <v>-75.91</v>
+        <v>-64.62</v>
       </c>
       <c r="G45" t="n">
-        <v>-13.63</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>127.84</v>
+        <v>242.53</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-44.33</v>
+        <v>-33.48</v>
       </c>
       <c r="K45" t="n">
-        <v>-75.64</v>
+        <v>-62.06</v>
       </c>
       <c r="L45" t="n">
-        <v>-70.68</v>
+        <v>-58.99</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-69.35</v>
+        <v>-50.9</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>-79.5</v>
+        <v>-71.19</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.23</v>
+        <v>450.98</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>-106.28</v>
+        <v>-79.2</v>
       </c>
       <c r="T45" t="n">
-        <v>-75.92</v>
+        <v>-64.21</v>
       </c>
       <c r="U45" t="n">
-        <v>-53.8</v>
+        <v>-12.35</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>158.86</v>
+        <v>407.1</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>-14.02</v>
+        <v>100.27</v>
       </c>
       <c r="Z45" t="n">
-        <v>-51.18</v>
+        <v>-15.01</v>
       </c>
     </row>
     <row r="46">
@@ -5062,13 +5062,13 @@
         <v>129</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.97</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-30.18</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-96.63</v>
+        <v>-64.4</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5080,55 +5080,55 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-7.96</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-37.13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-93.21</v>
+        <v>-60.13</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-36.29</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-37.37</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.37</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-31.3</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-37.08</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-18.43</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-14.37</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>-33.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5142,16 +5142,16 @@
         <v>130</v>
       </c>
       <c r="D47" t="n">
-        <v>-41.43</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>-73.39</v>
+        <v>-54.14</v>
       </c>
       <c r="F47" t="n">
-        <v>-116.71</v>
+        <v>-96.71</v>
       </c>
       <c r="G47" t="n">
-        <v>-24.36</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -5160,55 +5160,55 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-39.86</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-65.78</v>
+        <v>-55.54</v>
       </c>
       <c r="L47" t="n">
-        <v>-118.28</v>
+        <v>-98.07</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-66.04</v>
+        <v>-62.51</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>-65.92</v>
+        <v>-65.02</v>
       </c>
       <c r="Q47" t="n">
-        <v>25.52</v>
+        <v>161.16</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>-74.02</v>
+        <v>-59.16</v>
       </c>
       <c r="T47" t="n">
-        <v>-67.15</v>
+        <v>-64.97</v>
       </c>
       <c r="U47" t="n">
-        <v>-22.51</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>-8.48</v>
+        <v>75.54</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>-23.63</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>-58.75</v>
+        <v>-42.48</v>
       </c>
     </row>
     <row r="48">
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-29.4</v>
+        <v>-11.98</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-29.27</v>
+        <v>-11.54</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-36.73</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-36.68</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-40.11</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-40.12</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -5462,16 +5462,16 @@
         <v>135</v>
       </c>
       <c r="D51" t="n">
-        <v>-151.14</v>
+        <v>-151.16</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-202.02</v>
+        <v>-197.67</v>
       </c>
       <c r="G51" t="n">
-        <v>-98.41</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5480,28 +5480,28 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-171.07</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>-234.92</v>
+        <v>-224.48</v>
       </c>
       <c r="L51" t="n">
-        <v>-201.72</v>
+        <v>-196.88</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-216.39</v>
+        <v>-196.05</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>-214.32</v>
+        <v>-196.55</v>
       </c>
       <c r="Q51" t="n">
-        <v>597.83</v>
+        <v>1563.31</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -5510,22 +5510,22 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-231.09</v>
+        <v>-226.74</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>-54.74</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>204.05</v>
+        <v>729.66</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>202.35</v>
+        <v>700.36</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -5542,16 +5542,16 @@
         <v>136</v>
       </c>
       <c r="D52" t="n">
-        <v>-161.22</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-265.36</v>
+        <v>-187.96</v>
       </c>
       <c r="G52" t="n">
-        <v>-109.75</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5563,25 +5563,25 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>-286.4</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-266.69</v>
+        <v>-190.78</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-273.9</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>-269.31</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>382.33</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -5590,22 +5590,22 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>-288.51</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>-46.16</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>43.23</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>233.04</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
@@ -5622,16 +5622,16 @@
         <v>137</v>
       </c>
       <c r="D53" t="n">
-        <v>-115.85</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-75.74</v>
+        <v>-177.04</v>
       </c>
       <c r="G53" t="n">
-        <v>-178.36</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5643,25 +5643,25 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-114.77</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-83.58</v>
+        <v>-128.46</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>-103.12</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>-114.13</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>123.64</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -5670,16 +5670,16 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>-123.11</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>-12.48</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>-175.26</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>47.66</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>-15.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-23.8</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-23.79</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-68.87</v>
+        <v>-40.76</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -5803,25 +5803,25 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-32.88</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-66.36</v>
+        <v>-35.27</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>-32.83</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>-32.83</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>-30.75</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -5830,16 +5830,16 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>-32.86</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>-32.69</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>-32.15</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>-32.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-40.08</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-40.11</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-22.33</v>
+        <v>-7.14</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -6123,22 +6123,22 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>-7.79</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>-22.85</v>
+        <v>-7.94</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>-7.73</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>-7.77</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>-7.78</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>-5.87</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-11.77</v>
+        <v>-5.43</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -6203,22 +6203,22 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>-2.93</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-13.78</v>
+        <v>-18.07</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>-2.86</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>-2.92</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>-0.56</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -6262,13 +6262,13 @@
         <v>145</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.73</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>-18.68</v>
+        <v>-29.89</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -6280,28 +6280,28 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-8.86</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>-21.81</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>-24.55</v>
+        <v>-48.79</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>-21.21</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>-21.62</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>16.14</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>-21.65</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -6319,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>-3.63</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>-7.61</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.87</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-2.87</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>-18.07</v>
+        <v>-2.01</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>-19.45</v>
+        <v>-10.79</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-36.12</v>
+        <v>-7.53</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>-40.96</v>
+        <v>-27</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-8.44</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>-8.47</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-51.03</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -6683,22 +6683,22 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-41.05</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-50.7</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-40.67</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>-40.88</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>-41.03</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>-27.87</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-15.88</v>
+        <v>-7.14</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -6763,22 +6763,22 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>-2.94</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>-16.06</v>
+        <v>-7.94</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>-2.92</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>-2.93</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>-2.93</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>-2.59</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -6822,13 +6822,13 @@
         <v>152</v>
       </c>
       <c r="D68" t="n">
-        <v>-20.17</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-20.36</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -6840,25 +6840,25 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>-20.25</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>-51.27</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>-21.02</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>-50.15</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>-50.75</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>-51.28</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -6879,13 +6879,13 @@
         <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>-12.65</v>
+        <v>0</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>-18.92</v>
+        <v>0</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -6902,13 +6902,13 @@
         <v>153</v>
       </c>
       <c r="D69" t="n">
-        <v>-20.17</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>-40.96</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -6920,25 +6920,25 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-20.25</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>-38.68</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>-41.54</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>-38.05</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>-38.39</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>-38.69</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>-16.71</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>-18.92</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-23.28</v>
+        <v>-3.58</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -7003,22 +7003,22 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.23</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>-25.45</v>
+        <v>-15.4</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>-5.17</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>-5.21</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>-5.22</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>-3.29</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-19.82</v>
+        <v>-16.71</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -7083,25 +7083,25 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>-26.69</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>-32.07</v>
+        <v>-51.6</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>-26.22</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>-26.62</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>-6.77</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>-26.61</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>-12.53</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>-24.38</v>
+        <v>-7.53</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>-25.37</v>
+        <v>-27</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-16.01</v>
+        <v>-13.78</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -7323,22 +7323,22 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>-16.79</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>-23.63</v>
+        <v>-44.52</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>-16.55</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>-16.78</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>-16.76</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>-9.15</v>
+        <v>0</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-21.35</v>
+        <v>-20.59</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -7403,25 +7403,25 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>-25.3</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>-28.43</v>
+        <v>-55.69</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>-24.79</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>-25.14</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>-9.16</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>-25.2</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>-10.72</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>-28.55</v>
+        <v>-31.16</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -7483,25 +7483,25 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.72</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>-28.98</v>
+        <v>-31</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>-14.69</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>-14.71</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>-13.72</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>-14.7</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>-14.12</v>
+        <v>0</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
@@ -7542,16 +7542,16 @@
         <v>161</v>
       </c>
       <c r="D77" t="n">
-        <v>-45.34</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>-58.22</v>
+        <v>-36.63</v>
       </c>
       <c r="G77" t="n">
-        <v>-34.05</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7560,37 +7560,37 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-49.31</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>-54.45</v>
+        <v>-29.84</v>
       </c>
       <c r="L77" t="n">
-        <v>-75.58</v>
+        <v>-60.8</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>-57.24</v>
+        <v>-35.09</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>-60.17</v>
+        <v>-39.94</v>
       </c>
       <c r="Q77" t="n">
-        <v>121.35</v>
+        <v>342.81</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>-69.49</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>-58.85</v>
+        <v>-38.59</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -7599,16 +7599,16 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>31.24</v>
+        <v>158.52</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>-16.05</v>
+        <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>-42.8</v>
+        <v>-14.93</v>
       </c>
     </row>
     <row r="78">
@@ -7622,46 +7622,46 @@
         <v>162</v>
       </c>
       <c r="D78" t="n">
-        <v>-40.17</v>
+        <v>-21.85</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-37.6</v>
+        <v>-26.13</v>
       </c>
       <c r="G78" t="n">
-        <v>-53.02</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>-30.26</v>
+        <v>-16.12</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-40.77</v>
+        <v>-40.18</v>
       </c>
       <c r="K78" t="n">
-        <v>-48.53</v>
+        <v>-65.92</v>
       </c>
       <c r="L78" t="n">
-        <v>-39.12</v>
+        <v>-26.69</v>
       </c>
       <c r="M78" t="n">
-        <v>-15.09</v>
+        <v>12.37</v>
       </c>
       <c r="N78" t="n">
-        <v>-40.32</v>
+        <v>-39.86</v>
       </c>
       <c r="O78" t="n">
-        <v>-29.27</v>
+        <v>-14.53</v>
       </c>
       <c r="P78" t="n">
-        <v>-53.02</v>
+        <v>-83.16</v>
       </c>
       <c r="Q78" t="n">
-        <v>230.39</v>
+        <v>951.13</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>-47.33</v>
+        <v>-66.14</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>184.41</v>
+        <v>785.88</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>-8.18</v>
+        <v>160.35</v>
       </c>
       <c r="Z78" t="n">
-        <v>-26.17</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="79">
@@ -7702,16 +7702,16 @@
         <v>163</v>
       </c>
       <c r="D79" t="n">
-        <v>-23.85</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>27.21</v>
+        <v>36.65</v>
       </c>
       <c r="G79" t="n">
-        <v>205.57</v>
+        <v>330.15</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7720,28 +7720,28 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-45.27</v>
+        <v>-70.98</v>
       </c>
       <c r="K79" t="n">
-        <v>-19.94</v>
+        <v>64.6</v>
       </c>
       <c r="L79" t="n">
-        <v>20.19</v>
+        <v>23.28</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>9.1</v>
+        <v>361.41</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>-33.14</v>
+        <v>11.98</v>
       </c>
       <c r="Q79" t="n">
-        <v>2485.64</v>
+        <v>22008.7</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>-20.04</v>
+        <v>122.18</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
@@ -7759,16 +7759,16 @@
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>844.93</v>
+        <v>7760.47</v>
       </c>
       <c r="X79" t="n">
         <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>320.87</v>
+        <v>2074.26</v>
       </c>
       <c r="Z79" t="n">
-        <v>-20.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-26.4</v>
+        <v>-27.84</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -7803,25 +7803,25 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>-12.19</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>-26.79</v>
+        <v>-28.88</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>-11.95</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>-12.27</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>-1.29</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>-12.16</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>-3.65</v>
+        <v>0</v>
       </c>
       <c r="X80" t="n">
         <v>0</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="Z80" t="n">
-        <v>-11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-29.99</v>
+        <v>-32.5</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -7880,28 +7880,28 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>-5.33</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>-27.51</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>-30.15</v>
+        <v>-33.81</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>-26.86</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>-27.63</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>-27.4</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
@@ -7919,16 +7919,16 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>-9.24</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
         <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>-2.85</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
-        <v>-38.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7942,13 +7942,13 @@
         <v>166</v>
       </c>
       <c r="D82" t="n">
-        <v>-5.24</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>-62.76</v>
+        <v>-42.68</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -7960,28 +7960,28 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>-17.99</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>-35.41</v>
+        <v>-26.43</v>
       </c>
       <c r="L82" t="n">
-        <v>-64.24</v>
+        <v>-44.14</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>-33.58</v>
+        <v>-22.54</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>-35.01</v>
+        <v>-28.56</v>
       </c>
       <c r="Q82" t="n">
-        <v>16.69</v>
+        <v>181.65</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>-34.46</v>
+        <v>-25.99</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -7999,16 +7999,16 @@
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>-0.05</v>
+        <v>111.91</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>-9.4</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>-28.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -8022,16 +8022,16 @@
         <v>167</v>
       </c>
       <c r="D83" t="n">
-        <v>-31.34</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>32.94</v>
+        <v>35.23</v>
       </c>
       <c r="G83" t="n">
-        <v>-17.66</v>
+        <v>99.66</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -8040,28 +8040,28 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-57.11</v>
+        <v>-69.06</v>
       </c>
       <c r="K83" t="n">
-        <v>-27.78</v>
+        <v>-9.3</v>
       </c>
       <c r="L83" t="n">
-        <v>-14.61</v>
+        <v>-10.82</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>-47.82</v>
+        <v>-9.84</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>-73.23</v>
+        <v>-62.61</v>
       </c>
       <c r="Q83" t="n">
-        <v>1164.83</v>
+        <v>2580.08</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>-66.51</v>
+        <v>-48.85</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -8079,16 +8079,16 @@
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>543.67</v>
+        <v>1223.44</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>175.44</v>
+        <v>1025.45</v>
       </c>
       <c r="Z83" t="n">
-        <v>-16.13</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="84">
@@ -8108,13 +8108,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-39.2</v>
+        <v>-26.91</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-75.44</v>
+        <v>-39.4</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -8123,25 +8123,25 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>-4.73</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>-39.09</v>
+        <v>-26.93</v>
       </c>
       <c r="M84" t="n">
-        <v>-63.32</v>
+        <v>-34.86</v>
       </c>
       <c r="N84" t="n">
-        <v>-4.65</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>-75.35</v>
+        <v>-38.9</v>
       </c>
       <c r="P84" t="n">
-        <v>-4.74</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>-1.63</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>-2.41</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>-4.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-15.75</v>
+        <v>-56.06</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -8203,25 +8203,25 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>-19.42</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>-16.53</v>
+        <v>-55.42</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>-19.28</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>-2.94</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>-19.41</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>-5.68</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>-19.35</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>-15.16</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>-32.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -8268,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-8.97</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -8283,25 +8283,25 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.78</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>-8.99</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>-4.61</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>-4.76</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
@@ -8342,16 +8342,16 @@
         <v>171</v>
       </c>
       <c r="D87" t="n">
-        <v>-52.25</v>
+        <v>-17.27</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>14.17</v>
+        <v>7.83</v>
       </c>
       <c r="G87" t="n">
-        <v>-18.89</v>
+        <v>174.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8360,28 +8360,28 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-61.84</v>
+        <v>-53.22</v>
       </c>
       <c r="K87" t="n">
-        <v>-58.82</v>
+        <v>-52.4</v>
       </c>
       <c r="L87" t="n">
-        <v>28.78</v>
+        <v>20.99</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>-42.41</v>
+        <v>-5.16</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>-80.05</v>
+        <v>-81.31</v>
       </c>
       <c r="Q87" t="n">
-        <v>1795.54</v>
+        <v>3587</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>-68.68</v>
+        <v>-56.65</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -8399,16 +8399,16 @@
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>861.27</v>
+        <v>1867.49</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>140.2</v>
+        <v>577.77</v>
       </c>
       <c r="Z87" t="n">
-        <v>-19.58</v>
+        <v>34.73</v>
       </c>
     </row>
     <row r="88">
@@ -8422,73 +8422,73 @@
         <v>172</v>
       </c>
       <c r="D88" t="n">
-        <v>-15.48</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>-18.68</v>
+        <v>-17.36</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.78</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-24.21</v>
+        <v>-10.11</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-11.55</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>-13.29</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>-18</v>
+        <v>-16.28</v>
       </c>
       <c r="M88" t="n">
-        <v>-3.28</v>
+        <v>8.67</v>
       </c>
       <c r="N88" t="n">
-        <v>-11.72</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>-22.11</v>
+        <v>-7.51</v>
       </c>
       <c r="P88" t="n">
-        <v>-14.84</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>24.67</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>-12.99</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>-5.64</v>
+        <v>0</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>31.06</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>-1.98</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>-29.57</v>
+        <v>-12.06</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>-29.65</v>
+        <v>-12.59</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -8582,16 +8582,16 @@
         <v>174</v>
       </c>
       <c r="D90" t="n">
-        <v>-22.28</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-65.71</v>
+        <v>-40.4</v>
       </c>
       <c r="G90" t="n">
-        <v>-9.34</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -8600,28 +8600,28 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>-31.21</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>-45.3</v>
+        <v>-52.75</v>
       </c>
       <c r="L90" t="n">
-        <v>-64.63</v>
+        <v>-39.03</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>-42.88</v>
+        <v>-46.6</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>-39.97</v>
+        <v>-49.54</v>
       </c>
       <c r="Q90" t="n">
-        <v>104.36</v>
+        <v>467.94</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -8630,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>-45.07</v>
+        <v>-52.57</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -8639,16 +8639,16 @@
         <v>0</v>
       </c>
       <c r="W90" t="n">
-        <v>37.77</v>
+        <v>219.66</v>
       </c>
       <c r="X90" t="n">
         <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>-19.18</v>
+        <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>-30.69</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="91">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-67.7</v>
+        <v>-77.44</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -8683,22 +8683,22 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>-59.72</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>-67.23</v>
+        <v>-72.73</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>-59.42</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>-59.84</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>-59.77</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>-48.75</v>
+        <v>0</v>
       </c>
       <c r="X91" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>-52.16</v>
+        <v>-46.02</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>-51.48</v>
+        <v>-43.96</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-50.71</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>-50.7</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -8902,16 +8902,16 @@
         <v>179</v>
       </c>
       <c r="D94" t="n">
-        <v>-90.73</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-84.1</v>
+        <v>-156.17</v>
       </c>
       <c r="G94" t="n">
-        <v>-27.61</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8920,25 +8920,25 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>-92.58</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>-213.76</v>
+        <v>-91.21</v>
       </c>
       <c r="L94" t="n">
-        <v>-108.77</v>
+        <v>-132.88</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>-205.8</v>
+        <v>-82.44</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>-206.25</v>
+        <v>-94.62</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -8950,22 +8950,22 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>-205.53</v>
+        <v>-92.55</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>-27.59</v>
+        <v>0</v>
       </c>
       <c r="W94" t="n">
-        <v>26.41</v>
+        <v>276.81</v>
       </c>
       <c r="X94" t="n">
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>-54.91</v>
+        <v>0</v>
       </c>
       <c r="Z94" t="n">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>-34.85</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>-34.86</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -9062,16 +9062,16 @@
         <v>181</v>
       </c>
       <c r="D96" t="n">
-        <v>-161.09</v>
+        <v>-87.91</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-183.95</v>
+        <v>-188.87</v>
       </c>
       <c r="G96" t="n">
-        <v>-108.66</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -9080,25 +9080,25 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>-169.22</v>
+        <v>-110.65</v>
       </c>
       <c r="K96" t="n">
-        <v>-175.09</v>
+        <v>-301.35</v>
       </c>
       <c r="L96" t="n">
-        <v>-181.9</v>
+        <v>-184.52</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>-168.67</v>
+        <v>-282.55</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>-181</v>
+        <v>-322.61</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -9110,22 +9110,22 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>-177.68</v>
+        <v>-312.26</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>-107.9</v>
+        <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>139.75</v>
+        <v>731.06</v>
       </c>
       <c r="X96" t="n">
         <v>0</v>
       </c>
       <c r="Y96" t="n">
-        <v>-58.64</v>
+        <v>184.68</v>
       </c>
       <c r="Z96" t="n">
         <v>0</v>
@@ -9142,13 +9142,13 @@
         <v>182</v>
       </c>
       <c r="D97" t="n">
-        <v>-43.41</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>-48.06</v>
+        <v>-72.23</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -9160,28 +9160,28 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>-40.67</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>-60.87</v>
+        <v>-60.6</v>
       </c>
       <c r="L97" t="n">
-        <v>-45.87</v>
+        <v>-61.11</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>-55.14</v>
+        <v>-53.65</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>-47.43</v>
+        <v>-45.93</v>
       </c>
       <c r="Q97" t="n">
-        <v>119.95</v>
+        <v>417.58</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>-56.89</v>
+        <v>-57.91</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>53.74</v>
+        <v>238.84</v>
       </c>
       <c r="X97" t="n">
         <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>-30.89</v>
+        <v>0</v>
       </c>
       <c r="Z97" t="n">
-        <v>-13.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>-21.14</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>-27.56</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-29.42</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -9323,25 +9323,25 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>-13.68</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>-29.6</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>-13.61</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>-13.72</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>-5.62</v>
+        <v>0</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>-13.73</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>-9.09</v>
+        <v>0</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
@@ -9382,16 +9382,16 @@
         <v>185</v>
       </c>
       <c r="D100" t="n">
-        <v>-65.47</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>-177.33</v>
+        <v>-124.24</v>
       </c>
       <c r="G100" t="n">
-        <v>-27.61</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-67.17</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>-160.03</v>
+        <v>-91.8</v>
       </c>
       <c r="L100" t="n">
-        <v>-225.78</v>
+        <v>-153.79</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>-191.06</v>
+        <v>-79.35</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>-213.8</v>
+        <v>-94.14</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -9430,22 +9430,22 @@
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>-209.69</v>
+        <v>-91.47</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>-27.59</v>
+        <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>-145.52</v>
+        <v>331.9</v>
       </c>
       <c r="X100" t="n">
         <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>-29.43</v>
+        <v>0</v>
       </c>
       <c r="Z100" t="n">
         <v>0</v>
@@ -9462,16 +9462,16 @@
         <v>186</v>
       </c>
       <c r="D101" t="n">
-        <v>-188.17</v>
+        <v>-82.38</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>-294.64</v>
+        <v>-267.43</v>
       </c>
       <c r="G101" t="n">
-        <v>-94.52</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>-199.49</v>
+        <v>-103.29</v>
       </c>
       <c r="K101" t="n">
-        <v>-297.12</v>
+        <v>-211.07</v>
       </c>
       <c r="L101" t="n">
-        <v>-279.92</v>
+        <v>-262.31</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>-283.15</v>
+        <v>-194.68</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>-300.09</v>
+        <v>-222.99</v>
       </c>
       <c r="Q101" t="n">
-        <v>633.3</v>
+        <v>936.03</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -9510,22 +9510,22 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>-295.86</v>
+        <v>-217.93</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>-93.17</v>
+        <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>356.31</v>
+        <v>582.25</v>
       </c>
       <c r="X101" t="n">
         <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>-34.76</v>
+        <v>194.75</v>
       </c>
       <c r="Z101" t="n">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>-52.59</v>
+        <v>-73.81</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -9563,25 +9563,25 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>-61.28</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>-51.78</v>
+        <v>-64.92</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>-59.68</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>-62.13</v>
+        <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>-6.31</v>
+        <v>0</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>-61.23</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="W102" t="n">
-        <v>11.07</v>
+        <v>0</v>
       </c>
       <c r="X102" t="n">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Z102" t="n">
-        <v>-57.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -9628,67 +9628,67 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>-16.46</v>
+        <v>-18.09</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>-28.31</v>
+        <v>-46.26</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>-4.93</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>-10.15</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>-14.14</v>
+        <v>-3.46</v>
       </c>
       <c r="M103" t="n">
-        <v>-23.97</v>
+        <v>-18.32</v>
       </c>
       <c r="N103" t="n">
-        <v>-9.81</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>-20.12</v>
+        <v>8.77</v>
       </c>
       <c r="P103" t="n">
-        <v>-10.63</v>
+        <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>22.05</v>
+        <v>0</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>-22.32</v>
+        <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>-10.36</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
-        <v>-17.88</v>
+        <v>0</v>
       </c>
       <c r="V103" t="n">
         <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>11.32</v>
+        <v>0</v>
       </c>
       <c r="X103" t="n">
         <v>0</v>
       </c>
       <c r="Y103" t="n">
-        <v>-1.06</v>
+        <v>0</v>
       </c>
       <c r="Z103" t="n">
-        <v>-8.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>-17.02</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>-17.01</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>-25.37</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>-25.29</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-20.49</v>
+        <v>-19.92</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -9880,28 +9880,28 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>-3.45</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>-8.98</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>-22.25</v>
+        <v>-16.88</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>-11.01</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>-11.93</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -9910,25 +9910,25 @@
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>-11.64</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>-7.97</v>
+        <v>0</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>-1.66</v>
+        <v>0</v>
       </c>
       <c r="Z106" t="n">
-        <v>-9.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>-35.64</v>
+        <v>-31.52</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -9963,25 +9963,25 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>-27.71</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>-36.01</v>
+        <v>-32.91</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>-27.54</v>
+        <v>0</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>-27.95</v>
+        <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>-27.68</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>-15.05</v>
+        <v>0</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="Z107" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -10022,73 +10022,73 @@
         <v>194</v>
       </c>
       <c r="D108" t="n">
-        <v>-16.02</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>-41.03</v>
+        <v>-33.77</v>
       </c>
       <c r="G108" t="n">
-        <v>-25.38</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>-73.82</v>
+        <v>-88.32</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-20.97</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>-25.35</v>
+        <v>-39.2</v>
       </c>
       <c r="L108" t="n">
-        <v>-39.65</v>
+        <v>-31.03</v>
       </c>
       <c r="M108" t="n">
-        <v>92.38</v>
+        <v>221.51</v>
       </c>
       <c r="N108" t="n">
-        <v>-25.91</v>
+        <v>-40.46</v>
       </c>
       <c r="O108" t="n">
-        <v>-52.83</v>
+        <v>-58.31</v>
       </c>
       <c r="P108" t="n">
-        <v>-23.06</v>
+        <v>-30.87</v>
       </c>
       <c r="Q108" t="n">
-        <v>70.89</v>
+        <v>662.18</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>-54.92</v>
+        <v>-47.76</v>
       </c>
       <c r="T108" t="n">
-        <v>-26.8</v>
+        <v>-43.89</v>
       </c>
       <c r="U108" t="n">
-        <v>-41.27</v>
+        <v>-19.78</v>
       </c>
       <c r="V108" t="n">
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>33.45</v>
+        <v>349.66</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>-2.02</v>
+        <v>0</v>
       </c>
       <c r="Z108" t="n">
-        <v>-17.55</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="109">
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>-16.1</v>
+        <v>-9.5</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -10200,28 +10200,28 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-1.68</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.34</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>-17.44</v>
+        <v>-13.45</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>-10.41</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>-11.03</v>
+        <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>-2.15</v>
+        <v>0</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -10230,25 +10230,25 @@
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>-10.9</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
-        <v>-7.97</v>
+        <v>0</v>
       </c>
       <c r="V110" t="n">
         <v>0</v>
       </c>
       <c r="W110" t="n">
-        <v>-5.98</v>
+        <v>0</v>
       </c>
       <c r="X110" t="n">
         <v>0</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>-10.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-31.04</v>
+        <v>-49.96</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -10283,25 +10283,25 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>-21.85</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>-37.08</v>
+        <v>-35.7</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>-14.12</v>
+        <v>0</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>-14.96</v>
+        <v>0</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>-14.59</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="X111" t="n">
         <v>0</v>
@@ -10328,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="Z111" t="n">
-        <v>-13.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>-42.76</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>-42.85</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -10422,46 +10422,46 @@
         <v>199</v>
       </c>
       <c r="D113" t="n">
-        <v>-19.17</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-37.44</v>
+        <v>-40.46</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>-4.89</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>-19.8</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>-30.12</v>
+        <v>-33.18</v>
       </c>
       <c r="L113" t="n">
-        <v>-36.92</v>
+        <v>-35.2</v>
       </c>
       <c r="M113" t="n">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>-27.59</v>
+        <v>-31.95</v>
       </c>
       <c r="O113" t="n">
-        <v>-4.66</v>
+        <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>-27.09</v>
+        <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>21.25</v>
+        <v>251.92</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>-28.75</v>
+        <v>-32.97</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
@@ -10479,16 +10479,16 @@
         <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>21.35</v>
+        <v>155.83</v>
       </c>
       <c r="X113" t="n">
         <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>-10.93</v>
+        <v>0</v>
       </c>
       <c r="Z113" t="n">
-        <v>-24.11</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="114">
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>-49.88</v>
+        <v>-38.63</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -10520,28 +10520,28 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>-23.73</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>-34.41</v>
+        <v>-46.46</v>
       </c>
       <c r="L114" t="n">
-        <v>-50.71</v>
+        <v>-39.18</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>-33.29</v>
+        <v>-39.18</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>-34.87</v>
+        <v>-49.28</v>
       </c>
       <c r="Q114" t="n">
-        <v>37.57</v>
+        <v>389.92</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -10550,25 +10550,25 @@
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>-34.11</v>
+        <v>-44.59</v>
       </c>
       <c r="U114" t="n">
-        <v>-16.01</v>
+        <v>0</v>
       </c>
       <c r="V114" t="n">
         <v>0</v>
       </c>
       <c r="W114" t="n">
-        <v>15.94</v>
+        <v>259.44</v>
       </c>
       <c r="X114" t="n">
         <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>-14.1</v>
+        <v>0</v>
       </c>
       <c r="Z114" t="n">
-        <v>-27.49</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="115">
@@ -10582,13 +10582,13 @@
         <v>202</v>
       </c>
       <c r="D115" t="n">
-        <v>-10.91</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>-35.75</v>
+        <v>-33.11</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -10600,28 +10600,28 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>-11.85</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>-26.18</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>-37.13</v>
+        <v>-38.12</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>-25.35</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>-26.2</v>
+        <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>22.56</v>
+        <v>0</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>-26.1</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
@@ -10639,13 +10639,13 @@
         <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="X115" t="n">
         <v>0</v>
       </c>
       <c r="Y115" t="n">
-        <v>-10.42</v>
+        <v>0</v>
       </c>
       <c r="Z115" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>-200.22</v>
+        <v>-118.16</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -10683,22 +10683,22 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>-122.46</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>-200.12</v>
+        <v>-108.92</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>-122.36</v>
+        <v>0</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>-122.44</v>
+        <v>0</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>-122.44</v>
+        <v>0</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>-119.9</v>
+        <v>0</v>
       </c>
       <c r="X116" t="n">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-29.81</v>
+        <v>-19.19</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -10763,22 +10763,22 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>-6.88</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>-31.13</v>
+        <v>-24</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>-6.81</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>-6.86</v>
+        <v>0</v>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>-6.87</v>
+        <v>0</v>
       </c>
       <c r="U117" t="n">
         <v>0</v>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="W117" t="n">
-        <v>-4.94</v>
+        <v>0</v>
       </c>
       <c r="X117" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>205</v>
       </c>
       <c r="D118" t="n">
-        <v>-12.87</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>-38.35</v>
+        <v>-49.85</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -10840,28 +10840,28 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>-12.93</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>-31.93</v>
+        <v>-26.93</v>
       </c>
       <c r="L118" t="n">
-        <v>-37.45</v>
+        <v>-47.25</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>-31.46</v>
+        <v>-25.33</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>-31.81</v>
+        <v>-26.39</v>
       </c>
       <c r="Q118" t="n">
-        <v>6.73</v>
+        <v>135.26</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>-31.76</v>
+        <v>-26.33</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
@@ -10879,13 +10879,13 @@
         <v>0</v>
       </c>
       <c r="W118" t="n">
-        <v>-14.2</v>
+        <v>45.92</v>
       </c>
       <c r="X118" t="n">
         <v>0</v>
       </c>
       <c r="Y118" t="n">
-        <v>-12.64</v>
+        <v>0</v>
       </c>
       <c r="Z118" t="n">
         <v>0</v>
@@ -10902,16 +10902,16 @@
         <v>206</v>
       </c>
       <c r="D119" t="n">
-        <v>-13.97</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-38.6</v>
+        <v>-33.96</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.08</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -10920,28 +10920,28 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>-15.03</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>-30.57</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>-39.89</v>
+        <v>-37.18</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>-29.85</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>-30.63</v>
+        <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>7.87</v>
+        <v>0</v>
       </c>
       <c r="R119" t="n">
         <v>0</v>
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>-30.49</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
@@ -10959,13 +10959,13 @@
         <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>-6.28</v>
+        <v>0</v>
       </c>
       <c r="X119" t="n">
-        <v>-7.17</v>
+        <v>0</v>
       </c>
       <c r="Y119" t="n">
-        <v>-8.14</v>
+        <v>0</v>
       </c>
       <c r="Z119" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>-169.15</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -11006,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>-187.24</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>208</v>
       </c>
       <c r="D121" t="n">
-        <v>-59.24</v>
+        <v>-16.15</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-96.05</v>
+        <v>-71.02</v>
       </c>
       <c r="G121" t="n">
-        <v>-46.78</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -11080,28 +11080,28 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>-67.16</v>
+        <v>-55.13</v>
       </c>
       <c r="K121" t="n">
-        <v>-80.78</v>
+        <v>-74.58</v>
       </c>
       <c r="L121" t="n">
-        <v>-88.35</v>
+        <v>-62.42</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>-78.3</v>
+        <v>-62.41</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
       </c>
       <c r="P121" t="n">
-        <v>-89.45</v>
+        <v>-89.23</v>
       </c>
       <c r="Q121" t="n">
-        <v>456.55</v>
+        <v>1045.06</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>-86.12</v>
+        <v>-80.61</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
@@ -11119,13 +11119,13 @@
         <v>0</v>
       </c>
       <c r="W121" t="n">
-        <v>211.38</v>
+        <v>617.72</v>
       </c>
       <c r="X121" t="n">
-        <v>-55.46</v>
+        <v>0</v>
       </c>
       <c r="Y121" t="n">
-        <v>30.05</v>
+        <v>351.69</v>
       </c>
       <c r="Z121" t="n">
         <v>0</v>
@@ -11142,13 +11142,13 @@
         <v>209</v>
       </c>
       <c r="D122" t="n">
-        <v>-28.54</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>-72.3</v>
+        <v>-58.5</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -11160,25 +11160,25 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>-29.01</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>-46.3</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>-71.26</v>
+        <v>-53.39</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>-44.33</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="Q122" t="n">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>-45.87</v>
+        <v>0</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
@@ -11199,13 +11199,13 @@
         <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="X122" t="n">
         <v>0</v>
       </c>
       <c r="Y122" t="n">
-        <v>-22.08</v>
+        <v>0</v>
       </c>
       <c r="Z122" t="n">
         <v>0</v>
@@ -11222,13 +11222,13 @@
         <v>210</v>
       </c>
       <c r="D123" t="n">
-        <v>-20.94</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>-45.16</v>
+        <v>-44.11</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -11240,28 +11240,28 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>-20.39</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>-31.77</v>
+        <v>-39.57</v>
       </c>
       <c r="L123" t="n">
-        <v>-45.19</v>
+        <v>-44.23</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>-31.15</v>
+        <v>-39.25</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>-31.94</v>
+        <v>-40.86</v>
       </c>
       <c r="Q123" t="n">
-        <v>44.07</v>
+        <v>322.92</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>-31.94</v>
+        <v>-41.59</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
@@ -11279,16 +11279,16 @@
         <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>-1.3</v>
+        <v>61.78</v>
       </c>
       <c r="X123" t="n">
         <v>0</v>
       </c>
       <c r="Y123" t="n">
-        <v>-14.82</v>
+        <v>0</v>
       </c>
       <c r="Z123" t="n">
-        <v>-49.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -11302,16 +11302,16 @@
         <v>211</v>
       </c>
       <c r="D124" t="n">
-        <v>-24.75</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>-48.63</v>
+        <v>-47.71</v>
       </c>
       <c r="G124" t="n">
-        <v>-11.97</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -11320,28 +11320,28 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>-27.01</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>-42.59</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>-52.59</v>
+        <v>-45.22</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>-40.3</v>
+        <v>0</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
       </c>
       <c r="P124" t="n">
-        <v>-41.91</v>
+        <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>153.44</v>
+        <v>0</v>
       </c>
       <c r="R124" t="n">
         <v>0</v>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>-41.66</v>
+        <v>0</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
@@ -11359,13 +11359,13 @@
         <v>0</v>
       </c>
       <c r="W124" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="X124" t="n">
-        <v>-12.26</v>
+        <v>0</v>
       </c>
       <c r="Y124" t="n">
-        <v>-3.88</v>
+        <v>0</v>
       </c>
       <c r="Z124" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-52.17</v>
+        <v>-40.69</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -11403,22 +11403,22 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>-16.89</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>-51.63</v>
+        <v>-39.38</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>-16.76</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>-16.86</v>
+        <v>0</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>-16.91</v>
+        <v>0</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>-12.42</v>
+        <v>0</v>
       </c>
       <c r="X125" t="n">
         <v>0</v>
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>-36.76</v>
+        <v>-53.4</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -11483,25 +11483,25 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>-38.52</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>-36.35</v>
+        <v>-51.59</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>-39.66</v>
+        <v>0</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>-41.24</v>
+        <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>10.68</v>
+        <v>0</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -11510,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>-41.02</v>
+        <v>0</v>
       </c>
       <c r="U126" t="n">
         <v>0</v>
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="X126" t="n">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>-78.27</v>
+        <v>-123.55</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -11560,25 +11560,25 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>-90.55</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>-91.65</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>-76.35</v>
+        <v>-87.89</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>-88.79</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>-91.46</v>
+        <v>0</v>
       </c>
       <c r="Q127" t="n">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>-92.07</v>
+        <v>0</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
@@ -11599,13 +11599,13 @@
         <v>0</v>
       </c>
       <c r="W127" t="n">
-        <v>-5.67</v>
+        <v>0</v>
       </c>
       <c r="X127" t="n">
         <v>0</v>
       </c>
       <c r="Y127" t="n">
-        <v>-88.36</v>
+        <v>0</v>
       </c>
       <c r="Z127" t="n">
         <v>0</v>
@@ -11622,16 +11622,16 @@
         <v>215</v>
       </c>
       <c r="D128" t="n">
-        <v>-80.65</v>
+        <v>-22.87</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>-58.72</v>
+        <v>-41.77</v>
       </c>
       <c r="G128" t="n">
-        <v>-60.26</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -11640,28 +11640,28 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>-84.79</v>
+        <v>-45.17</v>
       </c>
       <c r="K128" t="n">
-        <v>-56.52</v>
+        <v>-84.65</v>
       </c>
       <c r="L128" t="n">
-        <v>-58.76</v>
+        <v>-41.99</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>-52.98</v>
+        <v>-70.41</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>-57.93</v>
+        <v>-92.01</v>
       </c>
       <c r="Q128" t="n">
-        <v>325.93</v>
+        <v>1628.57</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>-57.12</v>
+        <v>-88.57</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
@@ -11679,13 +11679,13 @@
         <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>96.04</v>
+        <v>573.74</v>
       </c>
       <c r="X128" t="n">
-        <v>-62.59</v>
+        <v>0</v>
       </c>
       <c r="Y128" t="n">
-        <v>29.43</v>
+        <v>218.14</v>
       </c>
       <c r="Z128" t="n">
         <v>0</v>
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>-84.54</v>
+        <v>-39.77</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -11720,25 +11720,25 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>-22.53</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>-44.56</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>-82.29</v>
+        <v>-33.05</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>-43.84</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>-44.4</v>
+        <v>0</v>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>-44.27</v>
+        <v>0</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
@@ -11759,13 +11759,13 @@
         <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>-28.75</v>
+        <v>0</v>
       </c>
       <c r="X129" t="n">
         <v>0</v>
       </c>
       <c r="Y129" t="n">
-        <v>-21.07</v>
+        <v>0</v>
       </c>
       <c r="Z129" t="n">
         <v>0</v>
@@ -11782,13 +11782,13 @@
         <v>217</v>
       </c>
       <c r="D130" t="n">
-        <v>-44.98</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>-104.34</v>
+        <v>-123.72</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -11800,25 +11800,25 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>-45.15</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>-128.61</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>-104.44</v>
+        <v>-124.52</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>-127.64</v>
+        <v>0</v>
       </c>
       <c r="O130" t="n">
         <v>0</v>
       </c>
       <c r="P130" t="n">
-        <v>-128.3</v>
+        <v>0</v>
       </c>
       <c r="Q130" t="n">
         <v>0</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>-128.7</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
@@ -11839,13 +11839,13 @@
         <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>-95.93</v>
+        <v>0</v>
       </c>
       <c r="X130" t="n">
         <v>0</v>
       </c>
       <c r="Y130" t="n">
-        <v>-42.58</v>
+        <v>0</v>
       </c>
       <c r="Z130" t="n">
         <v>0</v>
